--- a/src/main/resources/excel/out/export_test.xlsx
+++ b/src/main/resources/excel/out/export_test.xlsx
@@ -118,11 +118,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.0" customWidth="true"/>
-    <col min="2" max="2" width="35.0" customWidth="true"/>
-    <col min="3" max="3" width="17.0" customWidth="true"/>
-    <col min="4" max="4" width="17.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="1" max="1" width="10.0" customWidth="true"/>
+    <col min="2" max="2" width="29.0" customWidth="true"/>
+    <col min="3" max="3" width="12.0" customWidth="true"/>
+    <col min="4" max="4" width="12.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
